--- a/src/main/resources/xlsx/测试数据.xlsx
+++ b/src/main/resources/xlsx/测试数据.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\StudentManager\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92068800-3D13-4C44-8A39-649A77092A1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982442C6-9ACB-4168-9132-90957FF68E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="5420" windowWidth="27840" windowHeight="16940" xr2:uid="{4EE1A4E9-0A13-6D44-9D93-F6871FABE9C7}"/>
+    <workbookView xWindow="5736" yWindow="5424" windowWidth="27840" windowHeight="16944" xr2:uid="{4EE1A4E9-0A13-6D44-9D93-F6871FABE9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
   <si>
     <t>学号</t>
   </si>
@@ -162,131 +162,264 @@
     <t>朱信杰</t>
   </si>
   <si>
-    <t>031070038</t>
-  </si>
-  <si>
-    <t>031070039</t>
-  </si>
-  <si>
-    <t>031070040</t>
-  </si>
-  <si>
-    <t>031070041</t>
-  </si>
-  <si>
-    <t>031070042</t>
-  </si>
-  <si>
-    <t>031070043</t>
-  </si>
-  <si>
-    <t>031070044</t>
-  </si>
-  <si>
-    <t>031070045</t>
-  </si>
-  <si>
-    <t>031070046</t>
-  </si>
-  <si>
-    <t>031070047</t>
-  </si>
-  <si>
-    <t>031070048</t>
-  </si>
-  <si>
-    <t>031070049</t>
-  </si>
-  <si>
-    <t>031070050</t>
-  </si>
-  <si>
-    <t>031070051</t>
-  </si>
-  <si>
-    <t>031070052</t>
-  </si>
-  <si>
-    <t>031070053</t>
-  </si>
-  <si>
-    <t>031070054</t>
-  </si>
-  <si>
-    <t>031070055</t>
-  </si>
-  <si>
-    <t>031070056</t>
-  </si>
-  <si>
-    <t>031070057</t>
-  </si>
-  <si>
-    <t>031070058</t>
-  </si>
-  <si>
-    <t>031070059</t>
-  </si>
-  <si>
-    <t>031070060</t>
-  </si>
-  <si>
-    <t>031070061</t>
-  </si>
-  <si>
-    <t>031070062</t>
-  </si>
-  <si>
-    <t>031070063</t>
-  </si>
-  <si>
-    <t>031070064</t>
-  </si>
-  <si>
-    <t>031070065</t>
-  </si>
-  <si>
-    <t>031070066</t>
-  </si>
-  <si>
-    <t>031070067</t>
-  </si>
-  <si>
-    <t>031070068</t>
-  </si>
-  <si>
-    <t>031070069</t>
-  </si>
-  <si>
-    <t>031070070</t>
-  </si>
-  <si>
-    <t>031070071</t>
-  </si>
-  <si>
-    <t>031070072</t>
-  </si>
-  <si>
-    <t>031070073</t>
-  </si>
-  <si>
-    <t>031070074</t>
-  </si>
-  <si>
-    <t>031070075</t>
-  </si>
-  <si>
-    <t>031070076</t>
-  </si>
-  <si>
-    <t>031070077</t>
+    <t>31070038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31070039</t>
+  </si>
+  <si>
+    <t>31070040</t>
+  </si>
+  <si>
+    <t>31070041</t>
+  </si>
+  <si>
+    <t>31070042</t>
+  </si>
+  <si>
+    <t>31070043</t>
+  </si>
+  <si>
+    <t>31070044</t>
+  </si>
+  <si>
+    <t>31070045</t>
+  </si>
+  <si>
+    <t>31070046</t>
+  </si>
+  <si>
+    <t>31070047</t>
+  </si>
+  <si>
+    <t>31070048</t>
+  </si>
+  <si>
+    <t>31070049</t>
+  </si>
+  <si>
+    <t>31070050</t>
+  </si>
+  <si>
+    <t>31070051</t>
+  </si>
+  <si>
+    <t>31070052</t>
+  </si>
+  <si>
+    <t>31070053</t>
+  </si>
+  <si>
+    <t>31070054</t>
+  </si>
+  <si>
+    <t>31070055</t>
+  </si>
+  <si>
+    <t>31070056</t>
+  </si>
+  <si>
+    <t>31070057</t>
+  </si>
+  <si>
+    <t>31070058</t>
+  </si>
+  <si>
+    <t>31070059</t>
+  </si>
+  <si>
+    <t>31070060</t>
+  </si>
+  <si>
+    <t>31070061</t>
+  </si>
+  <si>
+    <t>31070062</t>
+  </si>
+  <si>
+    <t>31070063</t>
+  </si>
+  <si>
+    <t>31070064</t>
+  </si>
+  <si>
+    <t>31070065</t>
+  </si>
+  <si>
+    <t>31070066</t>
+  </si>
+  <si>
+    <t>31070067</t>
+  </si>
+  <si>
+    <t>31070068</t>
+  </si>
+  <si>
+    <t>31070069</t>
+  </si>
+  <si>
+    <t>31070070</t>
+  </si>
+  <si>
+    <t>31070071</t>
+  </si>
+  <si>
+    <t>31070072</t>
+  </si>
+  <si>
+    <t>31070073</t>
+  </si>
+  <si>
+    <t>31070074</t>
+  </si>
+  <si>
+    <t>31070075</t>
+  </si>
+  <si>
+    <t>31070076</t>
+  </si>
+  <si>
+    <t>31070077</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Kota Kinabalu</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Ndola</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Bursa</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Adana</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Hanga Roa</t>
+  </si>
+  <si>
+    <t>The Valley</t>
+  </si>
+  <si>
+    <t>Incheon</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
+    <t>Chu铆</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Dibrugarh</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Nukulaelae</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Perm</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>Graz</t>
+  </si>
+  <si>
+    <t>Lhasa</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>MALE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,6 +446,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +487,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,20 +809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A80D6-0BD9-4E4E-8FB8-35B53202EC45}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="31.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,11 +833,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -700,11 +856,20 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="5">
+        <v>36373</v>
+      </c>
+      <c r="G2" s="3">
         <v>13988888888</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -714,11 +879,20 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="5">
+        <v>35564</v>
+      </c>
+      <c r="G3" s="3">
         <v>13988888889</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -728,11 +902,20 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="5">
+        <v>35060</v>
+      </c>
+      <c r="G4" s="3">
         <v>13988888890</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -742,11 +925,20 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="5">
+        <v>35002</v>
+      </c>
+      <c r="G5" s="3">
         <v>13988888891</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -756,11 +948,20 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="5">
+        <v>32204</v>
+      </c>
+      <c r="G6" s="3">
         <v>13988888892</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -770,11 +971,20 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="5">
+        <v>33028</v>
+      </c>
+      <c r="G7" s="3">
         <v>13988888893</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -784,11 +994,20 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5">
+        <v>32844</v>
+      </c>
+      <c r="G8" s="3">
         <v>13988888888</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -798,11 +1017,20 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5">
+        <v>33317</v>
+      </c>
+      <c r="G9" s="3">
         <v>13988888889</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -812,11 +1040,20 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5">
+        <v>33912</v>
+      </c>
+      <c r="G10" s="3">
         <v>13988888890</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -826,17 +1063,26 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5">
+        <v>32196</v>
+      </c>
+      <c r="G11" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -846,17 +1092,26 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="5">
+        <v>32204</v>
+      </c>
+      <c r="G12" s="3">
         <v>13988888892</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -866,17 +1121,26 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="5">
+        <v>35286</v>
+      </c>
+      <c r="G13" s="3">
         <v>13988888893</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -886,17 +1150,26 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="5">
+        <v>32937</v>
+      </c>
+      <c r="G14" s="3">
         <v>13988888888</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -906,17 +1179,26 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>36322</v>
+      </c>
+      <c r="G15" s="3">
         <v>13988888889</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -926,17 +1208,26 @@
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="5">
+        <v>32705</v>
+      </c>
+      <c r="G16" s="3">
         <v>13988888890</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -946,17 +1237,26 @@
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="5">
+        <v>35868</v>
+      </c>
+      <c r="G17" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -966,17 +1266,26 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5">
+        <v>32471</v>
+      </c>
+      <c r="G18" s="3">
         <v>13988888892</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -986,17 +1295,26 @@
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="5">
+        <v>33179</v>
+      </c>
+      <c r="G19" s="3">
         <v>13988888893</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -1006,17 +1324,26 @@
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5">
+        <v>32912</v>
+      </c>
+      <c r="G20" s="3">
         <v>13988888888</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1026,17 +1353,26 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5">
+        <v>34152</v>
+      </c>
+      <c r="G21" s="3">
         <v>13988888889</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1046,17 +1382,26 @@
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="5">
+        <v>34774</v>
+      </c>
+      <c r="G22" s="3">
         <v>13988888890</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1066,17 +1411,26 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="5">
+        <v>36125</v>
+      </c>
+      <c r="G23" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1086,17 +1440,26 @@
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="5">
+        <v>36324</v>
+      </c>
+      <c r="G24" s="3">
         <v>13988888892</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -1106,17 +1469,26 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="5">
+        <v>35813</v>
+      </c>
+      <c r="G25" s="3">
         <v>13988888893</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1126,17 +1498,26 @@
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="5">
+        <v>35846</v>
+      </c>
+      <c r="G26" s="3">
         <v>13988888888</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -1146,17 +1527,26 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="5">
+        <v>35719</v>
+      </c>
+      <c r="G27" s="3">
         <v>13988888889</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -1166,17 +1556,26 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="5">
+        <v>35485</v>
+      </c>
+      <c r="G28" s="3">
         <v>13988888890</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1186,17 +1585,26 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="5">
+        <v>35858</v>
+      </c>
+      <c r="G29" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
@@ -1206,17 +1614,26 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="5">
+        <v>35190</v>
+      </c>
+      <c r="G30" s="3">
         <v>13988888892</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -1226,17 +1643,26 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="5">
+        <v>34932</v>
+      </c>
+      <c r="G31" s="3">
         <v>13988888893</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1246,17 +1672,26 @@
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="5">
+        <v>33087</v>
+      </c>
+      <c r="G32" s="3">
         <v>13988888888</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -1266,17 +1701,26 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="5">
+        <v>33375</v>
+      </c>
+      <c r="G33" s="3">
         <v>13988888889</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -1286,17 +1730,26 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="5">
+        <v>35623</v>
+      </c>
+      <c r="G34" s="3">
         <v>13988888890</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1306,17 +1759,26 @@
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="5">
+        <v>34581</v>
+      </c>
+      <c r="G35" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -1326,17 +1788,26 @@
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="5">
+        <v>34013</v>
+      </c>
+      <c r="G36" s="3">
         <v>13988888892</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -1346,17 +1817,26 @@
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="5">
+        <v>32774</v>
+      </c>
+      <c r="G37" s="3">
         <v>13988888893</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -1366,17 +1846,26 @@
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="5">
+        <v>35286</v>
+      </c>
+      <c r="G38" s="3">
         <v>13988888888</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -1386,17 +1875,26 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="5">
+        <v>35638</v>
+      </c>
+      <c r="G39" s="3">
         <v>13988888889</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -1406,17 +1904,26 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="5">
+        <v>35729</v>
+      </c>
+      <c r="G40" s="3">
         <v>13988888890</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -1426,90 +1933,101 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="5">
+        <v>34060</v>
+      </c>
+      <c r="G41" s="3">
         <v>13988888891</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F42" s="5"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="11:16">
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="14:19" x14ac:dyDescent="0.3">
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="11:16">
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="14:19" x14ac:dyDescent="0.3">
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>